--- a/medicine/Enfance/Daniel_Sernine/Daniel_Sernine.xlsx
+++ b/medicine/Enfance/Daniel_Sernine/Daniel_Sernine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Lortie, mieux connu sous le pseudonyme Daniel Sernine, né le 7 novembre 1955 à Montréal, est un écrivain et directeur littéraire québécois.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a obtenu un baccalauréat en histoire en 1975 et une maîtrise en bibliothéconomie en 1977, toutes deux de l'Université de Montréal.  Après avoir été à l'emploi de la Bibliothèque nationale du Québec, il se consacre à l'écriture depuis 1975, principalement dans les domaines de la science-fiction, du fantastique et de la littérature-jeunesse.  Ses premières nouvelles (Jalbert et La bouteille) sont parues dans le magazine Solaris, alors baptisé Requiem, en 1975 dans lequel il remportera le prix Dagon en 1977[1].  En 1979, Son premier roman, Organisation Argus, ainsi que deux recueils de nouvelles fantastiques, Les Contes de l’ombre et Légendes du vieux manoir, sont publiés.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a obtenu un baccalauréat en histoire en 1975 et une maîtrise en bibliothéconomie en 1977, toutes deux de l'Université de Montréal.  Après avoir été à l'emploi de la Bibliothèque nationale du Québec, il se consacre à l'écriture depuis 1975, principalement dans les domaines de la science-fiction, du fantastique et de la littérature-jeunesse.  Ses premières nouvelles (Jalbert et La bouteille) sont parues dans le magazine Solaris, alors baptisé Requiem, en 1975 dans lequel il remportera le prix Dagon en 1977.  En 1979, Son premier roman, Organisation Argus, ainsi que deux recueils de nouvelles fantastiques, Les Contes de l’ombre et Légendes du vieux manoir, sont publiés.
 Depuis, il a à son actif 15 romans ou recueils pour adultes, 18 romans et recueils pour adolescents, 3 livres pour enfants et plus de 80 nouvelles, en plus d'avoir remporté de nombreux prix littéraires.  Certaines de ses œuvres s'insèrent dans deux grands cycles, soit celui de Neubourg et Granverger, deux villes fictives de Nouvelle-France prétexte à des histoires fantastiques, ainsi que son cycle d'Érymède, consacré à la science-fiction.  De plus, on lui doit une centaine d'articles, reportages et essais publiés consacrés tant au domaine de l'écriture, que de l'astronomie, de l'édition, de la science-fiction et du fantastique.
 Il est le directeur littéraire de la collection « Jeunesse-Pop » aux Éditions Médiaspaul depuis 1983 et de la revue Lurelu depuis 1993, toutes deux consacrées à la littérature-jeunesse, ainsi que membre du comité de rédaction de la revue de science-fiction Solaris.
 </t>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Livres pour adultes
-Les Contes de l'ombre (Recueil, Sélect, 1979)
+          <t>Livres pour adultes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Contes de l'ombre (Recueil, Sélect, 1979)
 Légendes du vieux manoir (Recueil, Sélect, 1979)
 Le Vieil Homme et l'Espace (Recueil, Le Préambule, Chroniques du futur 4, 1981)
 Les Méandres du temps (Roman, Le Préambule, Chroniques du futur 6, 1983)
@@ -565,9 +584,43 @@
 Les Archipels du temps (la Suite du Temps 2) (Roman, Alire, 2005)
 Les Écueils du temps (la Suite du Temps 3) (Roman, Alire, 2008)
 Petits Démons (Recueil, Les six brumes, 2014)
-Ce qui reste de démons (Recueil, Les six brumes, 2016)
-Livres pour adolescents
-Organisation Argus (Roman, Paulines, Jeunesse-pop 38, 1979)
+Ce qui reste de démons (Recueil, Les six brumes, 2016)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Daniel_Sernine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Sernine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livres pour adolescents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Organisation Argus (Roman, Paulines, Jeunesse-pop 38, 1979)
 Traduction anglaise : Those Who Watch Over the Earth (Black Moss, 1990)
 Le Trésor du « Scorpion » (Roman, Paulines, Jeunesse-pop 40, 1980)
 Traduction anglaise : Scorpion's Treasure (Black Moss, 1990)
@@ -591,13 +644,81 @@
 La Traversée de l'apprenti sorcier (Roman, Médiaspaul, Jeunesse-pop 100, 1995)
 L'Arc-en-cercle (Roman, Héritage, Échos, 1995)
 Petites fugues en lettres mineures (Recueil, Héritage, Échos, 1997)
-Les Îles du ciel (Roman, Soulières, Graffiti, 2014)
-Livres pour enfants
-Jardins sous la pluie (Récit, Graficor, À nous trois, 1988)
+Les Îles du ciel (Roman, Soulières, Graffiti, 2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Daniel_Sernine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Sernine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jardins sous la pluie (Récit, Graficor, À nous trois, 1988)
 La Fresque aux trois démons (Recueil, Hurtubise HMH, Plus, 1991)
-La Magicienne bleue (Roman, Pierre Tisseyre, Papillon 14, 1991)
-Nouvelles
-Jalbert (Requiem 5, 1975)
+La Magicienne bleue (Roman, Pierre Tisseyre, Papillon 14, 1991)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Daniel_Sernine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Sernine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Jalbert (Requiem 5, 1975)
 Reparution dans Les Contes de l'ombre (Sélect, 1979)
 Reparution dans Les Enfants d'Enéïde (Phénix, Chimères, 1989)
 Nouvelle version dans : Les Portes mystérieuses (Héritage, Échos, 1993)
@@ -807,31 +928,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Daniel_Sernine</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Daniel_Sernine</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix littéraires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1977 : Prix Dagon (pour Exode 5)
 1982 : Prix Solaris (pour Loin des vertes prairies)
